--- a/calculator-tool/example_jee3_costing_results.xlsx
+++ b/calculator-tool/example_jee3_costing_results.xlsx
@@ -1243,19 +1243,19 @@
         <v>47943.898</v>
       </c>
       <c r="C5" t="n">
-        <v>980852.898</v>
+        <v>681898.898</v>
       </c>
       <c r="D5" t="n">
-        <v>11087461.898</v>
+        <v>10788507.898</v>
       </c>
       <c r="E5" t="n">
-        <v>8937505.898</v>
+        <v>8638551.898</v>
       </c>
       <c r="F5" t="n">
-        <v>8937505.898</v>
+        <v>8638551.898</v>
       </c>
       <c r="G5" t="n">
-        <v>29991270.49</v>
+        <v>28795454.49</v>
       </c>
     </row>
     <row r="6">
@@ -1361,16 +1361,16 @@
         <v>695732.796</v>
       </c>
       <c r="D10" t="n">
-        <v>17656063.592</v>
+        <v>17564263.592</v>
       </c>
       <c r="E10" t="n">
-        <v>17607660.592</v>
+        <v>17515860.592</v>
       </c>
       <c r="F10" t="n">
-        <v>17607660.592</v>
+        <v>17515860.592</v>
       </c>
       <c r="G10" t="n">
-        <v>53615061.47</v>
+        <v>53339661.47</v>
       </c>
     </row>
     <row r="11">
@@ -1654,10 +1654,10 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>30955808.07</v>
+        <v>33155208.07</v>
       </c>
       <c r="C23" t="n">
-        <v>51326360.06</v>
+        <v>51397760.06</v>
       </c>
       <c r="D23" t="n">
         <v>129385866.818</v>
@@ -1669,7 +1669,7 @@
         <v>86245686.538</v>
       </c>
       <c r="G23" t="n">
-        <v>384159408.024</v>
+        <v>386430208.024</v>
       </c>
     </row>
     <row r="24">
@@ -1772,19 +1772,19 @@
         <v>2626586107.9902</v>
       </c>
       <c r="C28" t="n">
-        <v>7885003986.3786</v>
+        <v>7886203986.3786</v>
       </c>
       <c r="D28" t="n">
-        <v>7889669661.2666</v>
+        <v>7888169661.2666</v>
       </c>
       <c r="E28" t="n">
-        <v>7889645889.7766</v>
+        <v>7888145889.7766</v>
       </c>
       <c r="F28" t="n">
-        <v>7889645889.7766</v>
+        <v>7888145889.7766</v>
       </c>
       <c r="G28" t="n">
-        <v>34180551535.1886</v>
+        <v>34177251535.1886</v>
       </c>
     </row>
     <row r="29">
@@ -1818,19 +1818,19 @@
         <v>5119701.5</v>
       </c>
       <c r="C30" t="n">
-        <v>154054472.378</v>
+        <v>89514525.218</v>
       </c>
       <c r="D30" t="n">
-        <v>41565720.378</v>
+        <v>59739088.938</v>
       </c>
       <c r="E30" t="n">
-        <v>40490742.378</v>
+        <v>38264110.938</v>
       </c>
       <c r="F30" t="n">
-        <v>40490742.378</v>
+        <v>38264110.938</v>
       </c>
       <c r="G30" t="n">
-        <v>281721379.012</v>
+        <v>230901537.532</v>
       </c>
     </row>
     <row r="31">
@@ -2002,7 +2002,7 @@
         <v>78806</v>
       </c>
       <c r="C38" t="n">
-        <v>413731.5</v>
+        <v>177313.5</v>
       </c>
       <c r="D38" t="n">
         <v>413731.5</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>906269</v>
+        <v>669851</v>
       </c>
     </row>
     <row r="39">
@@ -2097,7 +2097,7 @@
         <v>787957.898</v>
       </c>
       <c r="D42" t="n">
-        <v>61491311.892</v>
+        <v>61862311.892</v>
       </c>
       <c r="E42" t="n">
         <v>40645634.392</v>
@@ -2106,7 +2106,7 @@
         <v>40645634.392</v>
       </c>
       <c r="G42" t="n">
-        <v>144497783.472</v>
+        <v>144868783.472</v>
       </c>
     </row>
     <row r="43">
@@ -2232,19 +2232,19 @@
         <v>89346.898</v>
       </c>
       <c r="C48" t="n">
-        <v>169734659.414</v>
+        <v>171934059.414</v>
       </c>
       <c r="D48" t="n">
-        <v>169748613.414</v>
+        <v>171948013.414</v>
       </c>
       <c r="E48" t="n">
-        <v>168748613.414</v>
+        <v>170948013.414</v>
       </c>
       <c r="F48" t="n">
-        <v>168748613.414</v>
+        <v>170948013.414</v>
       </c>
       <c r="G48" t="n">
-        <v>677069846.554</v>
+        <v>685867446.554</v>
       </c>
     </row>
     <row r="49">
@@ -2278,19 +2278,19 @@
         <v>1058690.4</v>
       </c>
       <c r="C50" t="n">
-        <v>57815013.9</v>
+        <v>56590601.9</v>
       </c>
       <c r="D50" t="n">
-        <v>689678015.5336</v>
+        <v>269554494.928</v>
       </c>
       <c r="E50" t="n">
-        <v>577178715.4056</v>
+        <v>203428902.6</v>
       </c>
       <c r="F50" t="n">
-        <v>577178715.4056</v>
+        <v>203428902.6</v>
       </c>
       <c r="G50" t="n">
-        <v>1902909150.6448</v>
+        <v>734061592.428</v>
       </c>
     </row>
     <row r="51">
@@ -2301,7 +2301,7 @@
         <v>49943.898</v>
       </c>
       <c r="C51" t="n">
-        <v>414649568.098</v>
+        <v>419048368.098</v>
       </c>
       <c r="D51" t="n">
         <v>409141310.098</v>
@@ -2313,7 +2313,7 @@
         <v>409141310.098</v>
       </c>
       <c r="G51" t="n">
-        <v>1642123442.29</v>
+        <v>1646522242.29</v>
       </c>
     </row>
     <row r="52">
@@ -2370,7 +2370,7 @@
         <v>23701.5</v>
       </c>
       <c r="C54" t="n">
-        <v>374239.898</v>
+        <v>379139.898</v>
       </c>
       <c r="D54" t="n">
         <v>604059.898</v>
@@ -2382,7 +2382,7 @@
         <v>603997.898</v>
       </c>
       <c r="G54" t="n">
-        <v>2209997.092</v>
+        <v>2214897.092</v>
       </c>
     </row>
     <row r="55">
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>974312</v>
+        <v>675358</v>
       </c>
       <c r="G12" t="n">
-        <v>892753</v>
+        <v>593799</v>
       </c>
       <c r="H12" t="n">
-        <v>892753</v>
+        <v>593799</v>
       </c>
       <c r="I12" t="n">
-        <v>892753</v>
+        <v>593799</v>
       </c>
       <c r="J12" t="n">
-        <v>3652571</v>
+        <v>2456755</v>
       </c>
     </row>
     <row r="13">
@@ -3352,16 +3352,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17001733.796</v>
+        <v>16909933.796</v>
       </c>
       <c r="H28" t="n">
-        <v>16953330.796</v>
+        <v>16861530.796</v>
       </c>
       <c r="I28" t="n">
-        <v>16953330.796</v>
+        <v>16861530.796</v>
       </c>
       <c r="J28" t="n">
-        <v>50908395.388</v>
+        <v>50632995.388</v>
       </c>
     </row>
     <row r="29">
@@ -4530,7 +4530,7 @@
         <v>67</v>
       </c>
       <c r="E65" t="n">
-        <v>30955808.07</v>
+        <v>33155208.07</v>
       </c>
       <c r="F65" t="n">
         <v>28128008.07</v>
@@ -4545,7 +4545,7 @@
         <v>28128008.07</v>
       </c>
       <c r="J65" t="n">
-        <v>143467840.35</v>
+        <v>145667240.35</v>
       </c>
     </row>
     <row r="66">
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>23198351.99</v>
+        <v>23269751.99</v>
       </c>
       <c r="G66" t="n">
         <v>22024573.99</v>
@@ -4577,7 +4577,7 @@
         <v>22024573.99</v>
       </c>
       <c r="J66" t="n">
-        <v>89272073.96</v>
+        <v>89343473.96</v>
       </c>
     </row>
     <row r="67">
@@ -5045,19 +5045,19 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>5258484982.8884</v>
+        <v>5259684982.8884</v>
       </c>
       <c r="G81" t="n">
-        <v>5258020345.3884</v>
+        <v>5259220345.3884</v>
       </c>
       <c r="H81" t="n">
-        <v>5258020345.3884</v>
+        <v>5259220345.3884</v>
       </c>
       <c r="I81" t="n">
-        <v>5258020345.3884</v>
+        <v>5259220345.3884</v>
       </c>
       <c r="J81" t="n">
-        <v>21032546019.0536</v>
+        <v>21037346019.0536</v>
       </c>
     </row>
     <row r="82">
@@ -5080,16 +5080,16 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>5130312.388</v>
+        <v>2430312.388</v>
       </c>
       <c r="H82" t="n">
-        <v>5106540.898</v>
+        <v>2406540.898</v>
       </c>
       <c r="I82" t="n">
-        <v>5106540.898</v>
+        <v>2406540.898</v>
       </c>
       <c r="J82" t="n">
-        <v>15343394.184</v>
+        <v>7243394.184</v>
       </c>
     </row>
     <row r="83">
@@ -5237,19 +5237,19 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>148954472.378</v>
+        <v>84414525.218</v>
       </c>
       <c r="G87" t="n">
-        <v>30586136.378</v>
+        <v>27246189.218</v>
       </c>
       <c r="H87" t="n">
-        <v>30586136.378</v>
+        <v>27246189.218</v>
       </c>
       <c r="I87" t="n">
-        <v>30586136.378</v>
+        <v>27246189.218</v>
       </c>
       <c r="J87" t="n">
-        <v>240712881.512</v>
+        <v>166153092.872</v>
       </c>
     </row>
     <row r="88">
@@ -5272,16 +5272,16 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>5879584</v>
+        <v>27392899.72</v>
       </c>
       <c r="H88" t="n">
-        <v>4804606</v>
+        <v>5917921.72</v>
       </c>
       <c r="I88" t="n">
-        <v>4804606</v>
+        <v>5917921.72</v>
       </c>
       <c r="J88" t="n">
-        <v>15488796</v>
+        <v>39228743.16</v>
       </c>
     </row>
     <row r="89">
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>413731.5</v>
+        <v>177313.5</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>413731.5</v>
+        <v>177313.5</v>
       </c>
     </row>
     <row r="112">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>60782159.994</v>
+        <v>61153159.994</v>
       </c>
       <c r="H124" t="n">
         <v>39936482.494</v>
@@ -6433,7 +6433,7 @@
         <v>39936482.494</v>
       </c>
       <c r="J124" t="n">
-        <v>140655124.982</v>
+        <v>141026124.982</v>
       </c>
     </row>
     <row r="125">
@@ -6965,19 +6965,19 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>169728118.516</v>
+        <v>171927518.516</v>
       </c>
       <c r="G141" t="n">
-        <v>168416722.516</v>
+        <v>170616122.516</v>
       </c>
       <c r="H141" t="n">
-        <v>168416722.516</v>
+        <v>170616122.516</v>
       </c>
       <c r="I141" t="n">
-        <v>168416722.516</v>
+        <v>170616122.516</v>
       </c>
       <c r="J141" t="n">
-        <v>674978286.064</v>
+        <v>683775886.064</v>
       </c>
     </row>
     <row r="142">
@@ -7157,19 +7157,19 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>57317190.9</v>
+        <v>56092778.9</v>
       </c>
       <c r="G147" t="n">
-        <v>49843771</v>
+        <v>54169196.4</v>
       </c>
       <c r="H147" t="n">
-        <v>49843771</v>
+        <v>54169196.4</v>
       </c>
       <c r="I147" t="n">
-        <v>49843771</v>
+        <v>54169196.4</v>
       </c>
       <c r="J147" t="n">
-        <v>206848503.9</v>
+        <v>218600368.1</v>
       </c>
     </row>
     <row r="148">
@@ -7192,16 +7192,16 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>639336421.5336</v>
+        <v>214887475.528</v>
       </c>
       <c r="H148" t="n">
-        <v>526837121.4056</v>
+        <v>148761883.2</v>
       </c>
       <c r="I148" t="n">
-        <v>526837121.4056</v>
+        <v>148761883.2</v>
       </c>
       <c r="J148" t="n">
-        <v>1693010664.3448</v>
+        <v>512411241.928</v>
       </c>
     </row>
     <row r="149">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>414643027.2</v>
+        <v>419041827.2</v>
       </c>
       <c r="G150" t="n">
         <v>408987427.2</v>
@@ -7265,7 +7265,7 @@
         <v>408987427.2</v>
       </c>
       <c r="J150" t="n">
-        <v>1641605308.8</v>
+        <v>1646004108.8</v>
       </c>
     </row>
     <row r="151">
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>374239.898</v>
+        <v>379139.898</v>
       </c>
       <c r="G159" t="n">
         <v>367939.898</v>
@@ -7553,7 +7553,7 @@
         <v>367939.898</v>
       </c>
       <c r="J159" t="n">
-        <v>1478059.592</v>
+        <v>1482959.592</v>
       </c>
     </row>
     <row r="160">
@@ -7927,10 +7927,10 @@
         <v>914785.2</v>
       </c>
       <c r="D2" t="n">
-        <v>91729348.2</v>
+        <v>86179510.8</v>
       </c>
       <c r="E2" t="n">
-        <v>494045675.25</v>
+        <v>447671967.45</v>
       </c>
       <c r="F2" t="n">
         <v>74173482</v>
@@ -7939,7 +7939,7 @@
         <v>74173482</v>
       </c>
       <c r="H2" t="n">
-        <v>735036772.65</v>
+        <v>683113227.45</v>
       </c>
     </row>
     <row r="3">
@@ -7979,19 +7979,19 @@
         <v>2482849.95</v>
       </c>
       <c r="D4" t="n">
-        <v>14568379.79</v>
+        <v>14567479.79</v>
       </c>
       <c r="E4" t="n">
-        <v>31597654.12</v>
+        <v>31504954.12</v>
       </c>
       <c r="F4" t="n">
-        <v>26543784.13</v>
+        <v>26451084.13</v>
       </c>
       <c r="G4" t="n">
-        <v>26543784.13</v>
+        <v>26451084.13</v>
       </c>
       <c r="H4" t="n">
-        <v>101736452.12</v>
+        <v>101457452.12</v>
       </c>
     </row>
     <row r="5">
@@ -8028,22 +8028,22 @@
         <v>245</v>
       </c>
       <c r="C6" t="n">
-        <v>2827800</v>
+        <v>5027200</v>
       </c>
       <c r="D6" t="n">
-        <v>8583000</v>
+        <v>15257500</v>
       </c>
       <c r="E6" t="n">
-        <v>3307870</v>
+        <v>5878270</v>
       </c>
       <c r="F6" t="n">
-        <v>2830870</v>
+        <v>5030270</v>
       </c>
       <c r="G6" t="n">
-        <v>2830870</v>
+        <v>5030270</v>
       </c>
       <c r="H6" t="n">
-        <v>20380410</v>
+        <v>36223510</v>
       </c>
     </row>
     <row r="7">
@@ -8291,19 +8291,19 @@
         <v>263016882.886</v>
       </c>
       <c r="D16" t="n">
-        <v>584262438.606</v>
+        <v>519722491.446</v>
       </c>
       <c r="E16" t="n">
-        <v>1016944866.228</v>
+        <v>1035118234.788</v>
       </c>
       <c r="F16" t="n">
-        <v>454703847.14</v>
+        <v>452477215.7</v>
       </c>
       <c r="G16" t="n">
-        <v>454703847.14</v>
+        <v>452477215.7</v>
       </c>
       <c r="H16" t="n">
-        <v>2773631882</v>
+        <v>2722812040.52</v>
       </c>
     </row>
     <row r="17">
@@ -8418,22 +8418,22 @@
         <v>263</v>
       </c>
       <c r="C21" t="n">
-        <v>2688390831.5362</v>
+        <v>2688390831.53619</v>
       </c>
       <c r="D21" t="n">
-        <v>9719464333.8416</v>
+        <v>9724141087.24162</v>
       </c>
       <c r="E21" t="n">
-        <v>13291199755.9075</v>
+        <v>12917537089.1019</v>
       </c>
       <c r="F21" t="n">
-        <v>13181219278.5715</v>
+        <v>12807556611.7659</v>
       </c>
       <c r="G21" t="n">
-        <v>13181219278.5715</v>
+        <v>12807556611.7659</v>
       </c>
       <c r="H21" t="n">
-        <v>52061493478.4283</v>
+        <v>50945182231.4115</v>
       </c>
     </row>
     <row r="22">
@@ -8447,19 +8447,19 @@
         <v>4367860</v>
       </c>
       <c r="D22" t="n">
-        <v>29792480</v>
+        <v>30106680</v>
       </c>
       <c r="E22" t="n">
-        <v>55575560</v>
+        <v>53690360</v>
       </c>
       <c r="F22" t="n">
-        <v>51620250</v>
+        <v>49735050</v>
       </c>
       <c r="G22" t="n">
-        <v>51620250</v>
+        <v>49735050</v>
       </c>
       <c r="H22" t="n">
-        <v>192976400</v>
+        <v>187635000</v>
       </c>
     </row>
     <row r="23">
